--- a/similarities/split_global/harmonic_similarity_timestamps_252.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_252.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,554 +484,598 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Bb', 'Eb', 'C/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>['G', 'C', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:14.660000')]</t>
+          <t>('0:00:56.157000', '0:00:59.418000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:28.356495')]</t>
+          <t>('0:00:44.263604', '0:00:51.659160')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=56.157</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=44.263604</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:00:17.480000', '0:00:19.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+          <t>('0:00:25.780000', '0:00:35.100000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:01:06.040000', '0:01:09.180000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=25.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=66.04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.540000')]</t>
+          <t>('0:00:00.500000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+          <t>('0:00:11.200000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=11.2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:00:05.571955', '0:00:28.079297')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:29.500000', '0:00:31.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000')]</t>
+          <t>('0:00:38.580000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['D', 'G', 'D:7']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj'], ['C#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:17.839297', '0:00:30.215532'), ('0:00:19.139614', '0:00:32.700068')]</t>
+          <t>('0:01:01.880000', '0:01:07.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000'), ('0:00:17.960000', '0:00:21.020000')]</t>
+          <t>('0:01:38.700000', '0:01:58.800000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=19.139614']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=17.96']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:08.180000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_219</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000'), ('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:10.940000', '0:00:15.780000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000'), ('0:00:00.800000', '0:00:09.280000')]</t>
+          <t>('0:01:15.058526', '0:01:45.418616')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=10.94</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:00.380000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>isophonics_14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['C:7', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:59.620000', '0:01:04.340000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:12.503707', '0:00:19.759943')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=59.62</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1039,143 +1083,151 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>jaah_24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>jaah_5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E'], ['F#', 'B', 'E']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000'), ('0:02:53.380000', '0:02:56.020000')]</t>
+          <t>('0:00:37.490000', '0:00:43.170000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:30.654941', '0:00:38.514896'), ('0:00:38.514896', '0:00:45.713082')]</t>
+          <t>('0:00:23.280000', '0:00:26.480000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=173.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-24#t=37.49</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=38.514896']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=23.28</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F:maj']]</t>
+          <t>['G:7', 'C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['F:7', 'Bb', 'Eb:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.155000', '0:00:20.379000'), ('0:00:39.976000', '0:00:44.640000')]</t>
+          <t>('0:00:04.100000', '0:00:09.230000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:02.820000'), ('0:01:07.560000', '0:01:14.100000')]</t>
+          <t>('0:00:26.670000', '0:00:36.510000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=13.155', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=4.1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.67</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
